--- a/traffic_isf_challange/outputs/matrix_od_98-06-23_without_condistion/matrix_od_98-06-23_without_condistion.xlsx
+++ b/traffic_isf_challange/outputs/matrix_od_98-06-23_without_condistion/matrix_od_98-06-23_without_condistion.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="od_matrix_df (1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -337,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -452,6 +452,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -497,12 +512,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -827,7 +845,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,52 +905,52 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>207</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>1318</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>96</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>405</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
         <v>17</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>15</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="3">
         <v>145</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="3">
         <v>19</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="3">
         <v>27</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="3">
         <v>9</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="3">
         <v>14</v>
       </c>
       <c r="R2">
@@ -944,52 +962,52 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>10</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
         <v>6</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3">
         <v>13</v>
       </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
         <v>2</v>
       </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
         <v>0</v>
       </c>
       <c r="R3">
@@ -1001,52 +1019,52 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>228</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>277</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>15</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>56</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>146</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <v>17</v>
       </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
         <v>35</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <v>4</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3">
         <v>16</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="3">
         <v>9</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="3">
         <v>13</v>
       </c>
       <c r="R4">
@@ -1058,52 +1076,52 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>6</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>8</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
         <v>4</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="3">
         <v>6</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="3">
         <v>0</v>
       </c>
       <c r="R5">
@@ -1115,52 +1133,52 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>2239</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>1048</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <v>44</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>313</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>738</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
         <v>41</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>5</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <v>258</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>19</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3">
         <v>40</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="3">
         <v>18</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="3">
         <v>52</v>
       </c>
       <c r="R6">
@@ -1172,52 +1190,52 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>66</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>37</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>103</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>19</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>17</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
         <v>4</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="3">
         <v>12</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="3">
         <v>11</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="3">
         <v>8</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="3">
         <v>3</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="3">
         <v>6</v>
       </c>
       <c r="R7">
@@ -1229,52 +1247,52 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>519</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>335</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>8</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>1235</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>17</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>127</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>11</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="3">
         <v>3</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="3">
         <v>74</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="3">
         <v>4</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="3">
         <v>20</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="3">
         <v>3</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="3">
         <v>8</v>
       </c>
       <c r="R8">
@@ -1286,52 +1304,52 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>2435</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>13</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>1045</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>3285</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>32</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>239</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>34</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="3">
         <v>6</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="3">
         <v>296</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="3">
         <v>16</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="3">
         <v>47</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="3">
         <v>27</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="3">
         <v>55</v>
       </c>
       <c r="R9">
@@ -1343,52 +1361,52 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>3</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10">
@@ -1400,52 +1418,52 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>17</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
         <v>15</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>21</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>8</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="3">
         <v>5</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>12</v>
       </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
         <v>13</v>
       </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
         <v>7</v>
       </c>
-      <c r="P11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1">
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
         <v>4</v>
       </c>
       <c r="R11">
@@ -1457,52 +1475,52 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>3</v>
       </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>8</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>0</v>
       </c>
       <c r="R12">
@@ -1514,52 +1532,52 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>509</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>14</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>188</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>6</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>427</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>14</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <v>104</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>285</v>
       </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
         <v>13</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="3">
         <v>9</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
         <v>4</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="3">
         <v>13</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="3">
         <v>4</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="3">
         <v>19</v>
       </c>
       <c r="R13">
@@ -1571,52 +1589,52 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>50</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>5</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <v>4</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>6</v>
       </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>9</v>
       </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>6</v>
       </c>
       <c r="R14">
@@ -1628,52 +1646,52 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>49</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>3</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>16</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>9</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <v>6</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <v>39</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>18</v>
       </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>17</v>
       </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
         <v>4</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="3">
         <v>2</v>
       </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1</v>
       </c>
       <c r="R15">
@@ -1685,52 +1703,52 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
         <v>20</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>9</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>4</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <v>6</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <v>4</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
         <v>2</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
         <v>6</v>
       </c>
       <c r="R16">
@@ -1742,52 +1760,52 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>29</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>13</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
         <v>23</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>16</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <v>9</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>22</v>
       </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>12</v>
       </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>38</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="3">
         <v>12</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="3">
         <v>3</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="3">
         <v>9</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17">
